--- a/万新/公平价精确估值价格错误及品牌型号缺失报告/缺失品牌.xlsx
+++ b/万新/公平价精确估值价格错误及品牌型号缺失报告/缺失品牌.xlsx
@@ -1668,18 +1668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,6 +1681,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1998,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2010,11 +2010,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2056,11 +2056,11 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -2075,11 +2075,11 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -2094,18 +2094,18 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
@@ -2113,11 +2113,11 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -2139,11 +2139,11 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -2160,11 +2160,11 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -2179,18 +2179,18 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
@@ -2198,11 +2198,11 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -2217,11 +2217,11 @@
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -2252,11 +2252,11 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -2278,11 +2278,11 @@
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -2297,11 +2297,11 @@
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -2365,18 +2365,18 @@
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
@@ -2384,11 +2384,11 @@
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -2438,11 +2438,11 @@
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
@@ -2457,11 +2457,11 @@
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -2478,11 +2478,11 @@
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -2532,11 +2532,11 @@
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -2551,11 +2551,11 @@
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -2577,11 +2577,11 @@
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
@@ -2596,11 +2596,11 @@
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
@@ -2615,11 +2615,11 @@
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2634,11 +2634,11 @@
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
@@ -2653,18 +2653,18 @@
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
@@ -2672,11 +2672,11 @@
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -2716,11 +2716,11 @@
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -2784,11 +2784,11 @@
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
@@ -2803,11 +2803,11 @@
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
@@ -2864,11 +2864,11 @@
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
@@ -2897,25 +2897,25 @@
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
@@ -2923,95 +2923,95 @@
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
@@ -3019,14 +3019,14 @@
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B153" s="1"/>
@@ -3038,11 +3038,11 @@
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -3078,11 +3078,11 @@
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
@@ -3132,11 +3132,11 @@
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
@@ -3151,11 +3151,11 @@
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
@@ -3170,11 +3170,11 @@
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
@@ -3224,11 +3224,11 @@
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
@@ -3285,11 +3285,11 @@
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
@@ -3304,11 +3304,11 @@
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
@@ -3365,53 +3365,53 @@
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
@@ -3419,14 +3419,14 @@
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="7"/>
     </row>
     <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B213" s="1"/>
@@ -3438,11 +3438,11 @@
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
     </row>
     <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
@@ -3457,11 +3457,11 @@
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
@@ -3483,11 +3483,11 @@
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
@@ -3495,32 +3495,32 @@
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
@@ -3528,74 +3528,74 @@
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
@@ -3603,28 +3603,28 @@
       <c r="C239" s="1"/>
     </row>
     <row r="240" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B243" s="1"/>
@@ -3636,11 +3636,11 @@
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
     </row>
     <row r="246" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
@@ -3655,11 +3655,11 @@
       <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
@@ -3681,11 +3681,11 @@
       <c r="C251" s="1"/>
     </row>
     <row r="252" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
@@ -3721,11 +3721,11 @@
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="7"/>
     </row>
     <row r="259" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
@@ -3747,11 +3747,11 @@
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
@@ -3773,11 +3773,11 @@
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
@@ -3792,11 +3792,11 @@
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="7"/>
     </row>
     <row r="270" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
@@ -3874,46 +3874,46 @@
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B281" s="4"/>
-      <c r="C281" s="4"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
@@ -3921,28 +3921,28 @@
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="10"/>
     </row>
     <row r="289" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B291" s="1"/>
@@ -3954,11 +3954,11 @@
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
     </row>
     <row r="294" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
@@ -3973,11 +3973,11 @@
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
@@ -3999,11 +3999,11 @@
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="7"/>
     </row>
     <row r="301" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
@@ -4046,11 +4046,11 @@
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
     </row>
     <row r="308" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
@@ -4079,11 +4079,11 @@
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
@@ -4126,11 +4126,11 @@
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="7"/>
     </row>
     <row r="320" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
@@ -4152,11 +4152,11 @@
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="7"/>
     </row>
     <row r="324" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
@@ -4171,46 +4171,46 @@
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A327" s="6" t="s">
+      <c r="A327" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1"/>
@@ -4218,28 +4218,28 @@
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
     </row>
     <row r="334" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A334" s="7" t="s">
+      <c r="A334" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="7" t="s">
+      <c r="A335" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A336" s="7" t="s">
+      <c r="A336" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B336" s="1"/>
@@ -4251,11 +4251,11 @@
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
+      <c r="B338" s="7"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
@@ -4277,39 +4277,39 @@
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A344" s="6" t="s">
+      <c r="A344" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A346" s="6" t="s">
+      <c r="A346" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="1"/>
@@ -4317,21 +4317,21 @@
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
+      <c r="B348" s="7"/>
+      <c r="C348" s="7"/>
     </row>
     <row r="349" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A350" s="7" t="s">
+      <c r="A350" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B350" s="1"/>
@@ -4343,11 +4343,11 @@
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
+      <c r="B352" s="7"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
@@ -4369,11 +4369,11 @@
       <c r="C355" s="1"/>
     </row>
     <row r="356" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
+      <c r="B356" s="7"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
@@ -4388,11 +4388,11 @@
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
+      <c r="B359" s="7"/>
+      <c r="C359" s="7"/>
     </row>
     <row r="360" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
@@ -4407,11 +4407,11 @@
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
+      <c r="B362" s="7"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
@@ -4454,11 +4454,11 @@
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
+      <c r="B369" s="7"/>
+      <c r="C369" s="7"/>
     </row>
     <row r="370" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
@@ -4473,11 +4473,11 @@
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
+      <c r="B372" s="7"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
@@ -4499,11 +4499,11 @@
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
+      <c r="B376" s="7"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
@@ -4525,11 +4525,11 @@
       <c r="C379" s="1"/>
     </row>
     <row r="380" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
+      <c r="B380" s="7"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
@@ -4544,11 +4544,11 @@
       <c r="C382" s="1"/>
     </row>
     <row r="383" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="7"/>
     </row>
     <row r="384" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
@@ -4591,94 +4591,94 @@
       <c r="C389" s="1"/>
     </row>
     <row r="390" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
+      <c r="B390" s="8"/>
+      <c r="C390" s="8"/>
     </row>
     <row r="391" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A391" s="6" t="s">
+      <c r="A391" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A392" s="6"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="8"/>
     </row>
     <row r="394" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A394" s="6" t="s">
+      <c r="A394" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A395" s="6"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
+      <c r="B396" s="8"/>
+      <c r="C396" s="8"/>
     </row>
     <row r="397" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A397" s="6" t="s">
+      <c r="A397" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A398" s="6"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="8"/>
     </row>
     <row r="400" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A401" s="6"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
+      <c r="B402" s="8"/>
+      <c r="C402" s="8"/>
     </row>
     <row r="403" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="6" t="s">
+      <c r="A403" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1"/>
@@ -4686,11 +4686,11 @@
       <c r="C404" s="1"/>
     </row>
     <row r="405" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
+      <c r="B405" s="7"/>
+      <c r="C405" s="7"/>
     </row>
     <row r="406" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
@@ -4705,11 +4705,11 @@
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
+      <c r="B408" s="7"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
@@ -4745,11 +4745,11 @@
       <c r="C413" s="1"/>
     </row>
     <row r="414" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
+      <c r="B414" s="7"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
@@ -4764,11 +4764,11 @@
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
+      <c r="B417" s="7"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
@@ -4790,11 +4790,11 @@
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
+      <c r="B421" s="7"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
@@ -4816,11 +4816,11 @@
       <c r="C424" s="1"/>
     </row>
     <row r="425" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
+      <c r="B425" s="7"/>
+      <c r="C425" s="7"/>
     </row>
     <row r="426" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
@@ -4926,17 +4926,17 @@
       <c r="C440" s="1"/>
     </row>
     <row r="441" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
+      <c r="B441" s="7"/>
+      <c r="C441" s="7"/>
     </row>
     <row r="442" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B442" s="10" t="s">
+      <c r="B442" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C442" s="1"/>
@@ -4996,11 +4996,11 @@
       <c r="C450" s="1"/>
     </row>
     <row r="451" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
+      <c r="B451" s="7"/>
+      <c r="C451" s="7"/>
     </row>
     <row r="452" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
@@ -5029,11 +5029,11 @@
       <c r="C455" s="1"/>
     </row>
     <row r="456" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
+      <c r="B456" s="7"/>
+      <c r="C456" s="7"/>
     </row>
     <row r="457" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
@@ -5055,11 +5055,11 @@
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
+      <c r="B460" s="7"/>
+      <c r="C460" s="7"/>
     </row>
     <row r="461" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
@@ -5151,11 +5151,11 @@
       <c r="C473" s="1"/>
     </row>
     <row r="474" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
+      <c r="B474" s="7"/>
+      <c r="C474" s="7"/>
     </row>
     <row r="475" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
@@ -5170,11 +5170,11 @@
       <c r="C476" s="1"/>
     </row>
     <row r="477" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
+      <c r="B477" s="7"/>
+      <c r="C477" s="7"/>
     </row>
     <row r="478" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
@@ -5203,11 +5203,11 @@
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
+      <c r="B482" s="7"/>
+      <c r="C482" s="7"/>
     </row>
     <row r="483" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
@@ -5317,76 +5317,13 @@
     <row r="552" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A14:C14"/>
@@ -5411,13 +5348,76 @@
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A441:C441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/万新/公平价精确估值价格错误及品牌型号缺失报告/缺失品牌.xlsx
+++ b/万新/公平价精确估值价格错误及品牌型号缺失报告/缺失品牌.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="391">
   <si>
     <t>奥迪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1599,12 +1599,16 @@
     <t>奔驰房车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +1646,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1663,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,6 +1706,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1998,13 +2014,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
@@ -2017,13 +2033,15 @@
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5317,6 +5335,83 @@
     <row r="552" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A482:C482"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A383:C383"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A359:C359"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A348:C348"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A155:C155"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A95:C95"/>
@@ -5341,83 +5436,6 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A359:C359"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A372:C372"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A383:C383"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A482:C482"/>
-    <mergeCell ref="A451:C451"/>
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="A460:C460"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="A441:C441"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
